--- a/data/TestingExcel.xlsx
+++ b/data/TestingExcel.xlsx
@@ -1,21 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="2" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="Test" sheetId="2" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="3" r:id="rId2"/>
+    <sheet name="route" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="4" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="5" r:id="rId4"/>
+    <sheet name="Sheet4" sheetId="6" r:id="rId5"/>
+    <sheet name="draft" sheetId="7" r:id="rId6"/>
+    <sheet name="reply" sheetId="8" r:id="rId7"/>
+    <sheet name="setroute" sheetId="9" r:id="rId8"/>
+    <sheet name="approve" sheetId="10" r:id="rId9"/>
+    <sheet name="FM" sheetId="11" r:id="rId10"/>
+    <sheet name="pos" sheetId="12" r:id="rId11"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="81">
   <si>
     <t>code</t>
   </si>
@@ -102,13 +111,169 @@
   </si>
   <si>
     <t>2</t>
+  </si>
+  <si>
+    <t>(FA)</t>
+  </si>
+  <si>
+    <t>(RR)</t>
+  </si>
+  <si>
+    <t>(VO)</t>
+  </si>
+  <si>
+    <t>(NA)</t>
+  </si>
+  <si>
+    <t>Doc Pro Admin Group</t>
+  </si>
+  <si>
+    <t>Doc Pro Request Rights Group</t>
+  </si>
+  <si>
+    <t>Doc Pro Approvers</t>
+  </si>
+  <si>
+    <t>Doc Pro view only Group</t>
+  </si>
+  <si>
+    <t>Doc Pro No Access Group</t>
+  </si>
+  <si>
+    <t>groupName</t>
+  </si>
+  <si>
+    <t>searchCriteria</t>
+  </si>
+  <si>
+    <t>Neeraya.n</t>
+  </si>
+  <si>
+    <t>EwIMS</t>
+  </si>
+  <si>
+    <t>00. MM</t>
+  </si>
+  <si>
+    <t>01. MANAGEMENT MANUAL</t>
+  </si>
+  <si>
+    <t>01.FCPA</t>
+  </si>
+  <si>
+    <t>01</t>
+  </si>
+  <si>
+    <t>Assignment and Delegation of Work</t>
+  </si>
+  <si>
+    <t>documentNumber</t>
+  </si>
+  <si>
+    <t>documentName</t>
+  </si>
+  <si>
+    <t>attachment</t>
+  </si>
+  <si>
+    <t>D:\\Quality Manual\\Operation Procedure.docx</t>
+  </si>
+  <si>
+    <t>02</t>
+  </si>
+  <si>
+    <t>EV MR Evidence</t>
+  </si>
+  <si>
+    <t>This draft is ok to proceeed further</t>
+  </si>
+  <si>
+    <t>draftComments</t>
+  </si>
+  <si>
+    <t>approverPwd</t>
+  </si>
+  <si>
+    <t>newApproverPwd</t>
+  </si>
+  <si>
+    <t>confirmApproverPwd</t>
+  </si>
+  <si>
+    <t>a5</t>
+  </si>
+  <si>
+    <t>QMS/FC/P/FCPA/0002</t>
+  </si>
+  <si>
+    <t>ch</t>
+  </si>
+  <si>
+    <t>295-4(VH1)</t>
+  </si>
+  <si>
+    <t>01.Quality Manual(R1)</t>
+  </si>
+  <si>
+    <t>userName</t>
+  </si>
+  <si>
+    <t>passWord</t>
+  </si>
+  <si>
+    <t>desc</t>
+  </si>
+  <si>
+    <t>administrator</t>
+  </si>
+  <si>
+    <t>admin</t>
+  </si>
+  <si>
+    <t>2 Approvers in a position</t>
+  </si>
+  <si>
+    <t>fName</t>
+  </si>
+  <si>
+    <t>lName</t>
+  </si>
+  <si>
+    <t>eMail</t>
+  </si>
+  <si>
+    <t>uName</t>
+  </si>
+  <si>
+    <t>pwd</t>
+  </si>
+  <si>
+    <t>confirmPassword</t>
+  </si>
+  <si>
+    <t>levelName</t>
+  </si>
+  <si>
+    <t>prefix</t>
+  </si>
+  <si>
+    <t>reviewDue</t>
+  </si>
+  <si>
+    <t>subLevelName</t>
+  </si>
+  <si>
+    <t>subPrefix</t>
+  </si>
+  <si>
+    <t>subReviewDue</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -125,7 +290,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -148,11 +313,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
@@ -164,6 +340,8 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -224,7 +402,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -256,10 +434,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -291,7 +468,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -467,14 +643,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection sqref="A1:D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.42578125" bestFit="1" customWidth="1"/>
@@ -487,7 +663,7 @@
     <col min="9" max="9" width="8.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -501,7 +677,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -515,39 +691,190 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6">
       <c r="F10" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6">
       <c r="F11" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6">
       <c r="F12" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6">
       <c r="F13" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6">
       <c r="E16" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="5:5">
       <c r="E17" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="5:5">
       <c r="E18" t="s">
         <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:S2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="R1" sqref="R1:R1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="5" max="5" width="30.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19">
+      <c r="A1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="N1" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="O1" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="P1" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q1" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="R1" t="s">
+        <v>15</v>
+      </c>
+      <c r="S1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
+      <c r="A2" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
+      <c r="N2" s="6"/>
+      <c r="O2" s="6"/>
+      <c r="P2" s="6"/>
+      <c r="Q2" s="6"/>
+      <c r="R2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="S2" s="2" t="s">
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -556,20 +883,22 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:G5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="14.5703125" customWidth="1"/>
     <col min="3" max="4" width="30.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="30.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7">
       <c r="A1" s="6" t="s">
         <v>4</v>
       </c>
@@ -592,7 +921,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="30">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -611,7 +940,7 @@
       <c r="F2" s="6"/>
       <c r="G2" s="6"/>
     </row>
-    <row r="3" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="30">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -630,7 +959,7 @@
       <c r="F3" s="6"/>
       <c r="G3" s="6"/>
     </row>
-    <row r="4" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="60">
       <c r="A4" s="2" t="s">
         <v>1</v>
       </c>
@@ -651,7 +980,7 @@
       </c>
       <c r="G4" s="6"/>
     </row>
-    <row r="5" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="45">
       <c r="A5" s="2" t="s">
         <v>1</v>
       </c>
@@ -671,6 +1000,437 @@
       <c r="G5" s="2" t="s">
         <v>16</v>
       </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="3" max="3" width="27.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="3" max="3" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="3" max="3" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="33.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="44.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="D16" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G16" s="8" t="s">
+        <v>59</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G1" sqref="G1:G1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D2" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
